--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N2">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O2">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P2">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q2">
-        <v>2.514037565606444</v>
+        <v>0.2167008927537778</v>
       </c>
       <c r="R2">
-        <v>22.626338090458</v>
+        <v>1.950308034784</v>
       </c>
       <c r="S2">
-        <v>0.382169434277472</v>
+        <v>0.02785507988739442</v>
       </c>
       <c r="T2">
-        <v>0.418524395862967</v>
+        <v>0.03035252355110879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N3">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O3">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P3">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q3">
-        <v>0.198339434368</v>
+        <v>2.387320983765111</v>
       </c>
       <c r="R3">
-        <v>1.190036606208</v>
+        <v>21.485888853886</v>
       </c>
       <c r="S3">
-        <v>0.03015041241400376</v>
+        <v>0.3068700634989466</v>
       </c>
       <c r="T3">
-        <v>0.02201237114361253</v>
+        <v>0.3343835618901644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H4">
         <v>2.048396</v>
       </c>
       <c r="I4">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J4">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N4">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O4">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P4">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q4">
-        <v>1.817916399668445</v>
+        <v>0.1650151401671111</v>
       </c>
       <c r="R4">
-        <v>16.361247597016</v>
+        <v>1.485136261504</v>
       </c>
       <c r="S4">
-        <v>0.2763491252197888</v>
+        <v>0.02121131045457742</v>
       </c>
       <c r="T4">
-        <v>0.3026376269429701</v>
+        <v>0.02311308395901586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H5">
         <v>2.048396</v>
       </c>
       <c r="I5">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J5">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N5">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O5">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P5">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q5">
-        <v>0.143420494336</v>
+        <v>1.817916399668444</v>
       </c>
       <c r="R5">
-        <v>0.8605229660160002</v>
+        <v>16.361247597016</v>
       </c>
       <c r="S5">
-        <v>0.02180195313468311</v>
+        <v>0.2336778861308414</v>
       </c>
       <c r="T5">
-        <v>0.01591728423036062</v>
+        <v>0.2546290863581199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.221369</v>
+      </c>
+      <c r="H6">
+        <v>0.664107</v>
+      </c>
+      <c r="I6">
+        <v>0.08263719499391366</v>
+      </c>
+      <c r="J6">
+        <v>0.09004631892602898</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.073199</v>
-      </c>
-      <c r="H6">
-        <v>0.219597</v>
-      </c>
-      <c r="I6">
-        <v>0.03196309812819735</v>
-      </c>
-      <c r="J6">
-        <v>0.03415047814432848</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N6">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O6">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P6">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q6">
-        <v>0.1948885799513333</v>
+        <v>0.05349927928533334</v>
       </c>
       <c r="R6">
-        <v>1.753997219562</v>
+        <v>0.481493513568</v>
       </c>
       <c r="S6">
-        <v>0.02962583350626048</v>
+        <v>0.006876883059749214</v>
       </c>
       <c r="T6">
-        <v>0.03244407573720872</v>
+        <v>0.007493453828639651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H7">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I7">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J7">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N7">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O7">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P7">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q7">
-        <v>0.015375303552</v>
+        <v>0.5893835988913334</v>
       </c>
       <c r="R7">
-        <v>0.09225182131199999</v>
+        <v>5.304452390022</v>
       </c>
       <c r="S7">
-        <v>0.002337264621936874</v>
+        <v>0.07576031193416445</v>
       </c>
       <c r="T7">
-        <v>0.001706402407119766</v>
+        <v>0.08255286509738932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H8">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I8">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J8">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N8">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O8">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P8">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q8">
-        <v>1.171618523112667</v>
+        <v>0.159806527472</v>
       </c>
       <c r="R8">
-        <v>7.029711138676</v>
+        <v>0.9588391648320002</v>
       </c>
       <c r="S8">
-        <v>0.1781026641338057</v>
+        <v>0.02054178703507925</v>
       </c>
       <c r="T8">
-        <v>0.130030126644589</v>
+        <v>0.01492235473229335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H9">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I9">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J9">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N9">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O9">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P9">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q9">
-        <v>0.092432252544</v>
+        <v>1.760534862263</v>
       </c>
       <c r="R9">
-        <v>0.369729010176</v>
+        <v>10.563209173578</v>
       </c>
       <c r="S9">
-        <v>0.01405101584280096</v>
+        <v>0.2263019713933499</v>
       </c>
       <c r="T9">
-        <v>0.00683895953460452</v>
+        <v>0.1643945722921784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1027,55 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.216728</v>
+      </c>
+      <c r="H10">
+        <v>0.650184</v>
+      </c>
+      <c r="I10">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J10">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.1498013333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.449404</v>
-      </c>
-      <c r="I10">
-        <v>0.0654122968492484</v>
-      </c>
-      <c r="J10">
-        <v>0.0698887574965678</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N10">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O10">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P10">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q10">
-        <v>0.3988383601982222</v>
+        <v>0.05237766715733334</v>
       </c>
       <c r="R10">
-        <v>3.589545241784</v>
+        <v>0.471399004416</v>
       </c>
       <c r="S10">
-        <v>0.06062909821649423</v>
+        <v>0.006732709240107366</v>
       </c>
       <c r="T10">
-        <v>0.06639661476524975</v>
+        <v>0.007336353605850026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H11">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I11">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J11">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N11">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O11">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P11">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q11">
-        <v>0.031465470464</v>
+        <v>0.5770271746293334</v>
       </c>
       <c r="R11">
-        <v>0.188792822784</v>
+        <v>5.193244571664001</v>
       </c>
       <c r="S11">
-        <v>0.004783198632754176</v>
+        <v>0.07417199736579011</v>
       </c>
       <c r="T11">
-        <v>0.003492142731318057</v>
+        <v>0.08082214468524046</v>
       </c>
     </row>
   </sheetData>
